--- a/nmadb/479907.xlsx
+++ b/nmadb/479907.xlsx
@@ -1,6 +1,539 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Benefit</t>
+  </si>
+  <si>
+    <t>Outcome: Response Rate</t>
+  </si>
+  <si>
+    <t>Barcs 2000</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t>OXC</t>
+  </si>
+  <si>
+    <t>Glauser 2000</t>
+  </si>
+  <si>
+    <t>LTG</t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>Baulac 2010</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>PGB</t>
+  </si>
+  <si>
+    <t>ZNS</t>
+  </si>
+  <si>
+    <t>Binnie 1989</t>
+  </si>
+  <si>
+    <t>TGB</t>
+  </si>
+  <si>
+    <t>LEV</t>
+  </si>
+  <si>
+    <t>Boas 1996</t>
+  </si>
+  <si>
+    <t>EBZ</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>Duchowny 1999</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">COMMENT: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Article only presents study level data for studies comparing AED to placebo; only have data for 59/70 included studies</t>
+    </r>
+  </si>
+  <si>
+    <t>Jawad 1989</t>
+  </si>
+  <si>
+    <t>Loiseau 1990</t>
+  </si>
+  <si>
+    <t>Matsuo 1993</t>
+  </si>
+  <si>
+    <t>Messenheimer 1994</t>
+  </si>
+  <si>
+    <t>Naritoku 2007</t>
+  </si>
+  <si>
+    <t>Schapel 1993</t>
+  </si>
+  <si>
+    <t>Schmidt 1993</t>
+  </si>
+  <si>
+    <t>Smith 1993</t>
+  </si>
+  <si>
+    <t>BenMenachem 1996</t>
+  </si>
+  <si>
+    <t>Elterman 1999</t>
+  </si>
+  <si>
+    <t>Faught 1996</t>
+  </si>
+  <si>
+    <t>Guberman 2002</t>
+  </si>
+  <si>
+    <t>Korean Topiramate Study Group 1999</t>
+  </si>
+  <si>
+    <t>Privitera 1996</t>
+  </si>
+  <si>
+    <t>Rosenfeld 1996</t>
+  </si>
+  <si>
+    <t>Sharief 1996</t>
+  </si>
+  <si>
+    <t>Tassinari 1996</t>
+  </si>
+  <si>
+    <t>Yen 2000</t>
+  </si>
+  <si>
+    <t>Anhut 1994</t>
+  </si>
+  <si>
+    <t>Appleton 1999</t>
+  </si>
+  <si>
+    <t>Sivenius 1991</t>
+  </si>
+  <si>
+    <t>UK Gabapentin Study Group 1990</t>
+  </si>
+  <si>
+    <t>The US Gabapentin Study Group 1993</t>
+  </si>
+  <si>
+    <t>Yamauchi 2006</t>
+  </si>
+  <si>
+    <t>Arroyo 2004</t>
+  </si>
+  <si>
+    <t>Beydoun 2005</t>
+  </si>
+  <si>
+    <t>Elger 2005</t>
+  </si>
+  <si>
+    <t>French 2003</t>
+  </si>
+  <si>
+    <t>Lee 2009</t>
+  </si>
+  <si>
+    <t>Brodie 2005</t>
+  </si>
+  <si>
+    <t>Faught 2001</t>
+  </si>
+  <si>
+    <t>Schmidt 1993b</t>
+  </si>
+  <si>
+    <t>Wilder 1986</t>
+  </si>
+  <si>
+    <t>Kalviainen 1998</t>
+  </si>
+  <si>
+    <t>Sachdeo 1997</t>
+  </si>
+  <si>
+    <t>Uthman 1998</t>
+  </si>
+  <si>
+    <t>BenMenachem 2000</t>
+  </si>
+  <si>
+    <t>Betts 2000</t>
+  </si>
+  <si>
+    <t>Cereghino 2000</t>
+  </si>
+  <si>
+    <t>Glauser 2006</t>
+  </si>
+  <si>
+    <t>Peltola 2009</t>
+  </si>
+  <si>
+    <t>Shorvon 2000</t>
+  </si>
+  <si>
+    <t>Tsai 2006</t>
+  </si>
+  <si>
+    <t>Wu 2009</t>
+  </si>
+  <si>
+    <t>Xiao 2009</t>
+  </si>
+  <si>
+    <t>Zhou 2008</t>
+  </si>
+  <si>
+    <t>BenMenachem 2010</t>
+  </si>
+  <si>
+    <t>Elger 2007</t>
+  </si>
+  <si>
+    <t>Elger 2009</t>
+  </si>
+  <si>
+    <t>Gil-Nagel 2009</t>
+  </si>
+  <si>
+    <t>BenMenachem 2007</t>
+  </si>
+  <si>
+    <t>Chung 2010</t>
+  </si>
+  <si>
+    <t>Halasz 2009</t>
+  </si>
+  <si>
+    <t>Schachter 1995</t>
+  </si>
+  <si>
+    <t>Padgett 1997</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Richens 1995</t>
+  </si>
+  <si>
+    <t>2001a</t>
+  </si>
+  <si>
+    <t>Crawford 2001a</t>
+  </si>
+  <si>
+    <t>Specchio 1999</t>
+  </si>
+  <si>
+    <t>Chmielewaka &amp; Stelmasiak 2001</t>
+  </si>
+  <si>
+    <t>2001b</t>
+  </si>
+  <si>
+    <t>Crawford 2001b</t>
+  </si>
+  <si>
+    <t>Sethi 2002</t>
+  </si>
+  <si>
+    <t>Blum 2006</t>
+  </si>
+  <si>
+    <t>Labiner 2009</t>
+  </si>
+  <si>
+    <t>Fritz 2005</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +607,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +641,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +675,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +810,2870 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104:C120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8">
+        <v>205</v>
+      </c>
+      <c r="F2" s="33">
+        <v>521</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="23">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>22</v>
+      </c>
+      <c r="F3" s="33">
+        <v>173</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>55</v>
+      </c>
+      <c r="F4" s="33">
+        <v>138</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>28</v>
+      </c>
+      <c r="F5" s="33">
+        <v>129</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>34</v>
+      </c>
+      <c r="F6" s="33">
+        <v>141</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="23">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>30</v>
+      </c>
+      <c r="F7" s="33">
+        <v>140</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="23">
+        <v>3</v>
+      </c>
+      <c r="D8" s="22">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8">
+        <v>54</v>
+      </c>
+      <c r="F8" s="33">
+        <v>152</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="33">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="23">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="2">
+        <v>9</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6</v>
+      </c>
+      <c r="F11" s="33">
+        <v>30</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="23">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="33">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19">
+        <v>11</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>41</v>
+      </c>
+      <c r="F13" s="33">
+        <v>98</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="23">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>16</v>
+      </c>
+      <c r="F14" s="33">
+        <v>101</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3">
+        <v>1989</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6</v>
+      </c>
+      <c r="F15" s="33">
+        <v>12</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="23">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="33">
+        <v>12</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2</v>
+      </c>
+      <c r="F17" s="33">
+        <v>11</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="23">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="33">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>33</v>
+      </c>
+      <c r="F19" s="33">
+        <v>143</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="23">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>10</v>
+      </c>
+      <c r="F20" s="33">
+        <v>73</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>10</v>
+      </c>
+      <c r="F21" s="33">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="23">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="33">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="3">
+        <v>11</v>
+      </c>
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="8">
+        <v>51</v>
+      </c>
+      <c r="F23" s="33">
+        <v>116</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="23">
+        <v>11</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>25</v>
+      </c>
+      <c r="F24" s="33">
+        <v>120</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5</v>
+      </c>
+      <c r="F25" s="33">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="1"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="23">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="33">
+        <v>21</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="33">
+        <v>11</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="23">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1</v>
+      </c>
+      <c r="F28" s="33">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>4</v>
+      </c>
+      <c r="F29" s="33">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="23">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="33">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="3">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4</v>
+      </c>
+      <c r="E31" s="8">
+        <v>12</v>
+      </c>
+      <c r="F31" s="33">
+        <v>28</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="1"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="23">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="33">
+        <v>28</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="8">
+        <v>16</v>
+      </c>
+      <c r="F33" s="33">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="23">
+        <v>16</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>9</v>
+      </c>
+      <c r="F34" s="33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="3">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="8">
+        <v>54</v>
+      </c>
+      <c r="F35" s="33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="23">
+        <v>17</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>8</v>
+      </c>
+      <c r="F36" s="33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3">
+        <v>18</v>
+      </c>
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="8">
+        <v>77</v>
+      </c>
+      <c r="F37" s="33">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="23">
+        <v>18</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>22</v>
+      </c>
+      <c r="F38" s="33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="8">
+        <v>45</v>
+      </c>
+      <c r="F39" s="33">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="23">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>11</v>
+      </c>
+      <c r="F40" s="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3">
+        <v>20</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="8">
+        <v>58</v>
+      </c>
+      <c r="F41" s="33">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="23">
+        <v>20</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>4</v>
+      </c>
+      <c r="F42" s="33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>21</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="8">
+        <v>86</v>
+      </c>
+      <c r="F43" s="33">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="23">
+        <v>21</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>8</v>
+      </c>
+      <c r="F44" s="33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3">
+        <v>22</v>
+      </c>
+      <c r="D45" s="3">
+        <v>4</v>
+      </c>
+      <c r="E45" s="8">
+        <v>8</v>
+      </c>
+      <c r="F45" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="23">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2</v>
+      </c>
+      <c r="F46" s="33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3">
+        <v>1996</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="3">
+        <v>23</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="8">
+        <v>14</v>
+      </c>
+      <c r="F47" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="23">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
+        <v>3</v>
+      </c>
+      <c r="F48" s="33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="3">
+        <v>24</v>
+      </c>
+      <c r="D49" s="3">
+        <v>4</v>
+      </c>
+      <c r="E49" s="8">
+        <v>11</v>
+      </c>
+      <c r="F49" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="23">
+        <v>24</v>
+      </c>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="8">
+        <v>3</v>
+      </c>
+      <c r="F50" s="33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3">
+        <v>1994</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="3">
+        <v>25</v>
+      </c>
+      <c r="D51" s="22">
+        <v>5</v>
+      </c>
+      <c r="E51" s="8">
+        <v>36</v>
+      </c>
+      <c r="F51" s="33">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="23">
+        <v>25</v>
+      </c>
+      <c r="D52" s="22">
+        <v>1</v>
+      </c>
+      <c r="E52" s="8">
+        <v>11</v>
+      </c>
+      <c r="F52" s="33">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
+        <v>1999</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="3">
+        <v>26</v>
+      </c>
+      <c r="D53" s="22">
+        <v>5</v>
+      </c>
+      <c r="E53" s="8">
+        <v>25</v>
+      </c>
+      <c r="F53" s="33">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="23">
+        <v>26</v>
+      </c>
+      <c r="D54" s="22">
+        <v>1</v>
+      </c>
+      <c r="E54" s="8">
+        <v>21</v>
+      </c>
+      <c r="F54" s="33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
+        <v>1991</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="3">
+        <v>27</v>
+      </c>
+      <c r="D55" s="22">
+        <v>5</v>
+      </c>
+      <c r="E55" s="8">
+        <v>5</v>
+      </c>
+      <c r="F55" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="23">
+        <v>27</v>
+      </c>
+      <c r="D56" s="22">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8">
+        <v>3</v>
+      </c>
+      <c r="F56" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3">
+        <v>1990</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="3">
+        <v>28</v>
+      </c>
+      <c r="D57" s="22">
+        <v>5</v>
+      </c>
+      <c r="E57" s="8">
+        <v>13</v>
+      </c>
+      <c r="F57" s="33">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="23">
+        <v>28</v>
+      </c>
+      <c r="D58" s="22">
+        <v>1</v>
+      </c>
+      <c r="E58" s="8">
+        <v>6</v>
+      </c>
+      <c r="F58" s="33">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3">
+        <v>29</v>
+      </c>
+      <c r="D59" s="22">
+        <v>5</v>
+      </c>
+      <c r="E59" s="8">
+        <v>39</v>
+      </c>
+      <c r="F59" s="33">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="23">
+        <v>29</v>
+      </c>
+      <c r="D60" s="22">
+        <v>1</v>
+      </c>
+      <c r="E60" s="8">
+        <v>8</v>
+      </c>
+      <c r="F60" s="33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="3">
+        <v>30</v>
+      </c>
+      <c r="D61" s="22">
+        <v>5</v>
+      </c>
+      <c r="E61" s="8">
+        <v>20</v>
+      </c>
+      <c r="F61" s="33">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="23">
+        <v>30</v>
+      </c>
+      <c r="D62" s="22">
+        <v>1</v>
+      </c>
+      <c r="E62" s="8">
+        <v>5</v>
+      </c>
+      <c r="F62" s="33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3">
+        <v>2004</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="3">
+        <v>31</v>
+      </c>
+      <c r="D63" s="22">
+        <v>6</v>
+      </c>
+      <c r="E63" s="8">
+        <v>54</v>
+      </c>
+      <c r="F63" s="33">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="23">
+        <v>31</v>
+      </c>
+      <c r="D64" s="22">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>6</v>
+      </c>
+      <c r="F64" s="33">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="3">
+        <v>32</v>
+      </c>
+      <c r="D65" s="22">
+        <v>6</v>
+      </c>
+      <c r="E65" s="8">
+        <v>98</v>
+      </c>
+      <c r="F65" s="33">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="23">
+        <v>32</v>
+      </c>
+      <c r="D66" s="22">
+        <v>1</v>
+      </c>
+      <c r="E66" s="8">
+        <v>9</v>
+      </c>
+      <c r="F66" s="33">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="3">
+        <v>33</v>
+      </c>
+      <c r="D67" s="22">
+        <v>6</v>
+      </c>
+      <c r="E67" s="8">
+        <v>103</v>
+      </c>
+      <c r="F67" s="33">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="23">
+        <v>33</v>
+      </c>
+      <c r="D68" s="22">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>8</v>
+      </c>
+      <c r="F68" s="33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3">
+        <v>2003</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="3">
+        <v>34</v>
+      </c>
+      <c r="D69" s="22">
+        <v>6</v>
+      </c>
+      <c r="E69" s="8">
+        <v>121</v>
+      </c>
+      <c r="F69" s="33">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="23">
+        <v>34</v>
+      </c>
+      <c r="D70" s="22">
+        <v>1</v>
+      </c>
+      <c r="E70" s="8">
+        <v>14</v>
+      </c>
+      <c r="F70" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="3">
+        <v>35</v>
+      </c>
+      <c r="D71" s="22">
+        <v>6</v>
+      </c>
+      <c r="E71" s="8">
+        <v>55</v>
+      </c>
+      <c r="F71" s="33">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="23">
+        <v>35</v>
+      </c>
+      <c r="D72" s="22">
+        <v>1</v>
+      </c>
+      <c r="E72" s="8">
+        <v>19</v>
+      </c>
+      <c r="F72" s="33">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3">
+        <v>2005</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="3">
+        <v>36</v>
+      </c>
+      <c r="D73" s="22">
+        <v>7</v>
+      </c>
+      <c r="E73" s="8">
+        <v>91</v>
+      </c>
+      <c r="F73" s="33">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="23">
+        <v>36</v>
+      </c>
+      <c r="D74" s="22">
+        <v>1</v>
+      </c>
+      <c r="E74" s="8">
+        <v>21</v>
+      </c>
+      <c r="F74" s="33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="3">
+        <v>37</v>
+      </c>
+      <c r="D75" s="22">
+        <v>7</v>
+      </c>
+      <c r="E75" s="8">
+        <v>36</v>
+      </c>
+      <c r="F75" s="33">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="23">
+        <v>37</v>
+      </c>
+      <c r="D76" s="22">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
+        <v>8</v>
+      </c>
+      <c r="F76" s="33">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3">
+        <v>1993</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="3">
+        <v>38</v>
+      </c>
+      <c r="D77" s="22">
+        <v>7</v>
+      </c>
+      <c r="E77" s="8">
+        <v>19</v>
+      </c>
+      <c r="F77" s="33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="23">
+        <v>38</v>
+      </c>
+      <c r="D78" s="22">
+        <v>1</v>
+      </c>
+      <c r="E78" s="8">
+        <v>9</v>
+      </c>
+      <c r="F78" s="33">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3">
+        <v>1986</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="3">
+        <v>39</v>
+      </c>
+      <c r="D79" s="22">
+        <v>7</v>
+      </c>
+      <c r="E79" s="8">
+        <v>17</v>
+      </c>
+      <c r="F79" s="33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="23">
+        <v>39</v>
+      </c>
+      <c r="D80" s="22">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>8</v>
+      </c>
+      <c r="F80" s="33">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="3">
+        <v>40</v>
+      </c>
+      <c r="D81" s="22">
+        <v>8</v>
+      </c>
+      <c r="E81" s="8">
+        <v>11</v>
+      </c>
+      <c r="F81" s="33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="23">
+        <v>40</v>
+      </c>
+      <c r="D82" s="22">
+        <v>1</v>
+      </c>
+      <c r="E82" s="8">
+        <v>5</v>
+      </c>
+      <c r="F82" s="33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3">
+        <v>1997</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="3">
+        <v>41</v>
+      </c>
+      <c r="D83" s="22">
+        <v>8</v>
+      </c>
+      <c r="E83" s="8">
+        <v>61</v>
+      </c>
+      <c r="F83" s="33">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="23">
+        <v>41</v>
+      </c>
+      <c r="D84" s="22">
+        <v>1</v>
+      </c>
+      <c r="E84" s="8">
+        <v>10</v>
+      </c>
+      <c r="F84" s="33">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3">
+        <v>1998</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" s="3">
+        <v>42</v>
+      </c>
+      <c r="D85" s="22">
+        <v>8</v>
+      </c>
+      <c r="E85" s="8">
+        <v>38</v>
+      </c>
+      <c r="F85" s="33">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="23">
+        <v>42</v>
+      </c>
+      <c r="D86" s="22">
+        <v>1</v>
+      </c>
+      <c r="E86" s="8">
+        <v>4</v>
+      </c>
+      <c r="F86" s="33">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="3">
+        <v>43</v>
+      </c>
+      <c r="D87" s="22">
+        <v>9</v>
+      </c>
+      <c r="E87" s="8">
+        <v>71</v>
+      </c>
+      <c r="F87" s="33">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="23">
+        <v>43</v>
+      </c>
+      <c r="D88" s="22">
+        <v>1</v>
+      </c>
+      <c r="E88" s="8">
+        <v>15</v>
+      </c>
+      <c r="F88" s="33">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="3">
+        <v>44</v>
+      </c>
+      <c r="D89" s="22">
+        <v>9</v>
+      </c>
+      <c r="E89" s="8">
+        <v>13</v>
+      </c>
+      <c r="F89" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="23">
+        <v>44</v>
+      </c>
+      <c r="D90" s="22">
+        <v>1</v>
+      </c>
+      <c r="E90" s="8">
+        <v>5</v>
+      </c>
+      <c r="F90" s="33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" s="3">
+        <v>45</v>
+      </c>
+      <c r="D91" s="22">
+        <v>9</v>
+      </c>
+      <c r="E91" s="8">
+        <v>76</v>
+      </c>
+      <c r="F91" s="33">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="23">
+        <v>45</v>
+      </c>
+      <c r="D92" s="22">
+        <v>1</v>
+      </c>
+      <c r="E92" s="8">
+        <v>7</v>
+      </c>
+      <c r="F92" s="33">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="3">
+        <v>46</v>
+      </c>
+      <c r="D93" s="22">
+        <v>9</v>
+      </c>
+      <c r="E93" s="8">
+        <v>45</v>
+      </c>
+      <c r="F93" s="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="23">
+        <v>46</v>
+      </c>
+      <c r="D94" s="22">
+        <v>1</v>
+      </c>
+      <c r="E94" s="8">
+        <v>19</v>
+      </c>
+      <c r="F94" s="33">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" s="3">
+        <v>47</v>
+      </c>
+      <c r="D95" s="22">
+        <v>9</v>
+      </c>
+      <c r="E95" s="8">
+        <v>34</v>
+      </c>
+      <c r="F95" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="23">
+        <v>47</v>
+      </c>
+      <c r="D96" s="22">
+        <v>1</v>
+      </c>
+      <c r="E96" s="8">
+        <v>23</v>
+      </c>
+      <c r="F96" s="33">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" s="3">
+        <v>48</v>
+      </c>
+      <c r="D97" s="22">
+        <v>9</v>
+      </c>
+      <c r="E97" s="8">
+        <v>59</v>
+      </c>
+      <c r="F97" s="33">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="23">
+        <v>48</v>
+      </c>
+      <c r="D98" s="22">
+        <v>1</v>
+      </c>
+      <c r="E98" s="8">
+        <v>7</v>
+      </c>
+      <c r="F98" s="33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3">
+        <v>2006</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="3">
+        <v>49</v>
+      </c>
+      <c r="D99" s="22">
+        <v>9</v>
+      </c>
+      <c r="E99" s="8">
+        <v>20</v>
+      </c>
+      <c r="F99" s="33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="23">
+        <v>49</v>
+      </c>
+      <c r="D100" s="22">
+        <v>1</v>
+      </c>
+      <c r="E100" s="8">
+        <v>5</v>
+      </c>
+      <c r="F100" s="33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="3">
+        <v>50</v>
+      </c>
+      <c r="D101" s="22">
+        <v>9</v>
+      </c>
+      <c r="E101" s="8">
+        <v>57</v>
+      </c>
+      <c r="F101" s="33">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="23">
+        <v>50</v>
+      </c>
+      <c r="D102" s="22">
+        <v>1</v>
+      </c>
+      <c r="E102" s="8">
+        <v>26</v>
+      </c>
+      <c r="F102" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="3">
+        <v>51</v>
+      </c>
+      <c r="D103" s="22">
+        <v>9</v>
+      </c>
+      <c r="E103" s="8">
+        <v>13</v>
+      </c>
+      <c r="F103" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="23">
+        <v>51</v>
+      </c>
+      <c r="D104" s="22">
+        <v>1</v>
+      </c>
+      <c r="E104" s="8">
+        <v>11</v>
+      </c>
+      <c r="F104" s="33">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="3">
+        <v>52</v>
+      </c>
+      <c r="D105" s="22">
+        <v>9</v>
+      </c>
+      <c r="E105" s="8">
+        <v>8</v>
+      </c>
+      <c r="F105" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="23">
+        <v>52</v>
+      </c>
+      <c r="D106" s="22">
+        <v>1</v>
+      </c>
+      <c r="E106" s="8">
+        <v>2</v>
+      </c>
+      <c r="F106" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3">
+        <v>2010</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" s="3">
+        <v>53</v>
+      </c>
+      <c r="D107" s="3">
+        <v>10</v>
+      </c>
+      <c r="E107" s="8">
+        <v>91</v>
+      </c>
+      <c r="F107" s="33">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="23">
+        <v>53</v>
+      </c>
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+      <c r="E108" s="8">
+        <v>13</v>
+      </c>
+      <c r="F108" s="33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C109" s="3">
+        <v>54</v>
+      </c>
+      <c r="D109" s="3">
+        <v>10</v>
+      </c>
+      <c r="E109" s="8">
+        <v>46</v>
+      </c>
+      <c r="F109" s="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="23">
+        <v>54</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="8">
+        <v>13</v>
+      </c>
+      <c r="F110" s="33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C111" s="3">
+        <v>55</v>
+      </c>
+      <c r="D111" s="3">
+        <v>10</v>
+      </c>
+      <c r="E111" s="8">
+        <v>98</v>
+      </c>
+      <c r="F111" s="33">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="23">
+        <v>55</v>
+      </c>
+      <c r="D112" s="3">
+        <v>1</v>
+      </c>
+      <c r="E112" s="8">
+        <v>20</v>
+      </c>
+      <c r="F112" s="33">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="3">
+        <v>56</v>
+      </c>
+      <c r="D113" s="3">
+        <v>10</v>
+      </c>
+      <c r="E113" s="8">
+        <v>58</v>
+      </c>
+      <c r="F113" s="33">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="23">
+        <v>56</v>
+      </c>
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+      <c r="E114" s="8">
+        <v>19</v>
+      </c>
+      <c r="F114" s="33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="3">
+        <v>2007</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="3">
+        <v>57</v>
+      </c>
+      <c r="D115" s="3">
+        <v>11</v>
+      </c>
+      <c r="E115" s="8">
+        <v>79</v>
+      </c>
+      <c r="F115" s="33">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="23">
+        <v>57</v>
+      </c>
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+      <c r="E116" s="8">
+        <v>21</v>
+      </c>
+      <c r="F116" s="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="3">
+        <v>2008</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C117" s="3">
+        <v>58</v>
+      </c>
+      <c r="D117" s="3">
+        <v>11</v>
+      </c>
+      <c r="E117" s="8">
+        <v>77</v>
+      </c>
+      <c r="F117" s="33">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="23">
+        <v>58</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="8">
+        <v>19</v>
+      </c>
+      <c r="F118" s="33">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="3">
+        <v>2009</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="3">
+        <v>59</v>
+      </c>
+      <c r="D119" s="3">
+        <v>11</v>
+      </c>
+      <c r="E119" s="8">
+        <v>120</v>
+      </c>
+      <c r="F119" s="33">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="23">
+        <v>59</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="8">
+        <v>41</v>
+      </c>
+      <c r="F120" s="33">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B121" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C121" s="9">
+        <v>60</v>
+      </c>
+      <c r="D121" s="9">
+        <v>3</v>
+      </c>
+      <c r="E121" s="25"/>
+      <c r="F121" s="33">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="9"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="9">
+        <v>60</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1</v>
+      </c>
+      <c r="E122" s="25"/>
+      <c r="F122" s="33">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="9">
+        <v>1997</v>
+      </c>
+      <c r="B123" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123" s="9">
+        <v>61</v>
+      </c>
+      <c r="D123" s="9">
+        <v>7</v>
+      </c>
+      <c r="E123" s="25"/>
+      <c r="F123" s="33">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="9"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="9">
+        <v>61</v>
+      </c>
+      <c r="D124" s="9">
+        <v>1</v>
+      </c>
+      <c r="E124" s="25"/>
+      <c r="F124" s="33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="9">
+        <v>1995</v>
+      </c>
+      <c r="B125" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="9">
+        <v>62</v>
+      </c>
+      <c r="D125" s="9">
+        <v>8</v>
+      </c>
+      <c r="E125" s="25"/>
+      <c r="F125" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="9"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="9">
+        <v>62</v>
+      </c>
+      <c r="D126" s="9">
+        <v>1</v>
+      </c>
+      <c r="E126" s="25"/>
+      <c r="F126" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C127" s="9">
+        <v>63</v>
+      </c>
+      <c r="D127" s="9">
+        <v>8</v>
+      </c>
+      <c r="E127" s="25"/>
+      <c r="F127" s="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="9"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="9">
+        <v>63</v>
+      </c>
+      <c r="D128" s="9">
+        <v>1</v>
+      </c>
+      <c r="E128" s="25"/>
+      <c r="F128" s="33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="9">
+        <v>1999</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" s="9">
+        <v>64</v>
+      </c>
+      <c r="D129" s="9">
+        <v>3</v>
+      </c>
+      <c r="E129" s="25"/>
+      <c r="F129" s="33">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="9"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="9">
+        <v>64</v>
+      </c>
+      <c r="D130" s="9">
+        <v>5</v>
+      </c>
+      <c r="E130" s="25"/>
+      <c r="F130" s="33">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="9">
+        <v>65</v>
+      </c>
+      <c r="D131" s="9">
+        <v>3</v>
+      </c>
+      <c r="E131" s="25"/>
+      <c r="F131" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="9"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="9">
+        <v>65</v>
+      </c>
+      <c r="D132" s="9">
+        <v>8</v>
+      </c>
+      <c r="E132" s="25"/>
+      <c r="F132" s="33">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C133" s="9">
+        <v>66</v>
+      </c>
+      <c r="D133" s="9">
+        <v>3</v>
+      </c>
+      <c r="E133" s="25"/>
+      <c r="F133" s="33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="9"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="9">
+        <v>66</v>
+      </c>
+      <c r="D134" s="9">
+        <v>8</v>
+      </c>
+      <c r="E134" s="25"/>
+      <c r="F134" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C135" s="9">
+        <v>67</v>
+      </c>
+      <c r="D135" s="9">
+        <v>3</v>
+      </c>
+      <c r="E135" s="25"/>
+      <c r="F135" s="33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="9"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="9">
+        <v>67</v>
+      </c>
+      <c r="D136" s="9">
+        <v>8</v>
+      </c>
+      <c r="E136" s="25"/>
+      <c r="F136" s="33">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C137" s="9">
+        <v>68</v>
+      </c>
+      <c r="D137" s="9">
+        <v>3</v>
+      </c>
+      <c r="E137" s="25"/>
+      <c r="F137" s="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="9"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="9">
+        <v>68</v>
+      </c>
+      <c r="D138" s="9">
+        <v>4</v>
+      </c>
+      <c r="E138" s="25"/>
+      <c r="F138" s="33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="9">
+        <v>2009</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C139" s="9">
+        <v>69</v>
+      </c>
+      <c r="D139" s="9">
+        <v>3</v>
+      </c>
+      <c r="E139" s="25"/>
+      <c r="F139" s="33">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="9"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="9">
+        <v>69</v>
+      </c>
+      <c r="D140" s="9">
+        <v>9</v>
+      </c>
+      <c r="E140" s="25"/>
+      <c r="F140" s="33">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C141" s="9">
+        <v>70</v>
+      </c>
+      <c r="D141" s="9">
+        <v>8</v>
+      </c>
+      <c r="E141" s="25"/>
+      <c r="F141" s="33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="9"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="9">
+        <v>70</v>
+      </c>
+      <c r="D142" s="9">
+        <v>4</v>
+      </c>
+      <c r="E142" s="25"/>
+      <c r="F142" s="33">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H14:N17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>